--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Номер заказа</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>Не закрыт</t>
-  </si>
-  <si>
-    <t>123 сбер</t>
   </si>
 </sst>
 </file>
@@ -436,34 +433,34 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B2">
-        <v>732832293</v>
+        <v>185404885</v>
       </c>
       <c r="C2">
-        <v>21315345</v>
+        <v>236322856</v>
       </c>
       <c r="D2" s="2">
-        <v>44807.443978703704</v>
+        <v>45041.86893779451</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2">
-        <v>44818.77747765046</v>
+        <v>45041.50833333333</v>
       </c>
       <c r="G2">
-        <v>500</v>
+        <v>1212</v>
       </c>
       <c r="H2">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="I2">
-        <v>450</v>
+        <v>121</v>
       </c>
       <c r="J2">
-        <v>50</v>
+        <v>1090</v>
       </c>
       <c r="K2" t="s">
         <v>13</v>
@@ -474,154 +471,230 @@
     </row>
     <row r="3">
       <c r="A3">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>185404885</v>
+      </c>
+      <c r="C3">
+        <v>236322856</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45041.883623359245</v>
+      </c>
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>456456</v>
-      </c>
-      <c r="C3">
-        <v>9680670</v>
-      </c>
-      <c r="D3" s="2">
-        <v>44835.611745462964</v>
-      </c>
-      <c r="E3">
-        <v>11</v>
-      </c>
       <c r="F3" s="2">
-        <v>44836.6118491088</v>
+        <v>45041.50833333333</v>
       </c>
       <c r="G3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="H3">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="I3">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="J3">
-        <v>200</v>
+        <v>1080</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>15</v>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B4">
-        <v>5645647</v>
+        <v>185404885</v>
       </c>
       <c r="C4">
-        <v>11123233</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>44696.613132673614</v>
+        <v>45041.886526336224</v>
       </c>
       <c r="E4">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2">
-        <v>44744.61322702546</v>
+        <v>45041.50833333333</v>
       </c>
       <c r="G4">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>4600</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K4" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>14</v>
+      <c r="L4" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B5">
-        <v>123123</v>
+        <v>185404885</v>
       </c>
       <c r="C5">
-        <v>5768655</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>44868.61496076389</v>
+        <v>45042.84731792426</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2">
-        <v>44884.615064652775</v>
+        <v>45049.50833333333</v>
       </c>
       <c r="G5">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K5" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>14</v>
+      <c r="L5" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B6">
-        <v>236322856</v>
+        <v>185404885</v>
       </c>
       <c r="C6">
-        <v>236322856</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>44746.61244488426</v>
+        <v>45042.86098662064</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2">
-        <v>44749.61254543981</v>
+        <v>45043.50833333333</v>
       </c>
       <c r="G6">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>185404885</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45042.86229964735</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45056.50833333333</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>185404885</v>
+      </c>
+      <c r="C8">
+        <v>236322856</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45041.86554414516</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45041.50833333333</v>
+      </c>
+      <c r="G8">
+        <v>234</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>23</v>
+      </c>
+      <c r="J8">
+        <v>210</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Номер заказа</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>Исполнитель не оставил свои реквизиты</t>
-  </si>
-  <si>
-    <t>Закрыт</t>
   </si>
   <si>
     <t>Не закрыт</t>
@@ -76,17 +73,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9FFF40"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -106,15 +98,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="false">
       <alignment/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="false">
       <alignment/>
     </xf>
   </cellXfs>
@@ -433,34 +422,34 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>185404885</v>
+        <v>194161435</v>
       </c>
       <c r="C2">
-        <v>236322856</v>
+        <v>185404885</v>
       </c>
       <c r="D2" s="2">
-        <v>45041.86893779451</v>
+        <v>45200.59883534214</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2">
-        <v>45041.50833333333</v>
+        <v>45203.46597222222</v>
       </c>
       <c r="G2">
-        <v>1212</v>
+        <v>564</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I2">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="J2">
-        <v>1090</v>
+        <v>479</v>
       </c>
       <c r="K2" t="s">
         <v>13</v>
@@ -471,34 +460,34 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>185404885</v>
       </c>
       <c r="C3">
-        <v>236322856</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>45041.883623359245</v>
+        <v>45200.561309403565</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>45041.50833333333</v>
+        <v>45207.50833333333</v>
       </c>
       <c r="G3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1080</v>
+        <v>0</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
@@ -509,45 +498,45 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>185404885</v>
+        <v>194161435</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>185404885</v>
       </c>
       <c r="D4" s="2">
-        <v>45041.886526336224</v>
+        <v>45200.60018457116</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2">
-        <v>45041.50833333333</v>
+        <v>45207.50763888889</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="K4" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>15</v>
+      <c r="L4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>185404885</v>
@@ -556,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>45042.84731792426</v>
+        <v>45200.5619130427</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>45049.50833333333</v>
+        <v>45208.50833333333</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -579,121 +568,463 @@
       <c r="K5" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>15</v>
+      <c r="L5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>185404885</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>185404885</v>
       </c>
       <c r="D6" s="2">
-        <v>45042.86098662064</v>
+        <v>45200.5621936169</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2">
-        <v>45043.50833333333</v>
+        <v>45200.50833333333</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="K6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>15</v>
+      <c r="L6" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>185404885</v>
+        <v>194161435</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>185404885</v>
       </c>
       <c r="D7" s="2">
-        <v>45042.86229964735</v>
+        <v>45200.603404522546</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F7" s="2">
-        <v>45056.50833333333</v>
+        <v>45207.46666666667</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>15</v>
+      <c r="L7" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>185404885</v>
       </c>
       <c r="C8">
-        <v>236322856</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2">
-        <v>45041.86554414516</v>
+        <v>45200.563849207916</v>
       </c>
       <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45201.50833333333</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>194161435</v>
+      </c>
+      <c r="C9">
+        <v>185404885</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45200.60573908237</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45202.50833333333</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>185404885</v>
+      </c>
+      <c r="C10">
+        <v>185404885</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45200.57374768678</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2">
+        <v>45200.50833333333</v>
+      </c>
+      <c r="G10">
+        <v>3123</v>
+      </c>
+      <c r="H10">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>468</v>
+      </c>
+      <c r="J10">
+        <v>2654</v>
+      </c>
+      <c r="K10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>194161435</v>
+      </c>
+      <c r="C11">
+        <v>185404885</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45200.57193138537</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45203.50833333333</v>
+      </c>
+      <c r="G11">
+        <v>1000</v>
+      </c>
+      <c r="H11">
+        <v>15</v>
+      </c>
+      <c r="I11">
+        <v>150</v>
+      </c>
+      <c r="J11">
+        <v>850</v>
+      </c>
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>194161435</v>
+      </c>
+      <c r="C12">
+        <v>185404885</v>
+      </c>
+      <c r="D12" s="2">
+        <v>45200.607149690404</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45207.50833333333</v>
+      </c>
+      <c r="G12">
+        <v>45</v>
+      </c>
+      <c r="H12">
+        <v>15</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>38</v>
+      </c>
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>194161435</v>
+      </c>
+      <c r="C13">
+        <v>185404885</v>
+      </c>
+      <c r="D13" s="2">
+        <v>45200.58638787328</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45206.50833333333</v>
+      </c>
+      <c r="G13">
+        <v>2131</v>
+      </c>
+      <c r="H13">
+        <v>15</v>
+      </c>
+      <c r="I13">
+        <v>319</v>
+      </c>
+      <c r="J13">
+        <v>1811</v>
+      </c>
+      <c r="K13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>194161435</v>
+      </c>
+      <c r="C14">
+        <v>185404885</v>
+      </c>
+      <c r="D14" s="2">
+        <v>45200.62172164398</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="F14" s="2">
+        <v>45200.50833333333</v>
+      </c>
+      <c r="G14">
+        <v>4545</v>
+      </c>
+      <c r="H14">
+        <v>15</v>
+      </c>
+      <c r="I14">
+        <v>681</v>
+      </c>
+      <c r="J14">
+        <v>3863</v>
+      </c>
+      <c r="K14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>194161435</v>
+      </c>
+      <c r="C15">
+        <v>185404885</v>
+      </c>
+      <c r="D15" s="2">
+        <v>45200.587446452315</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="F15" s="2">
+        <v>45207.50833333333</v>
+      </c>
+      <c r="G15">
+        <v>15</v>
+      </c>
+      <c r="H15">
+        <v>15</v>
+      </c>
+      <c r="I15">
         <v>2</v>
       </c>
-      <c r="F8" s="2">
-        <v>45041.50833333333</v>
-      </c>
-      <c r="G8">
-        <v>234</v>
-      </c>
-      <c r="H8">
-        <v>10</v>
-      </c>
-      <c r="I8">
-        <v>23</v>
-      </c>
-      <c r="J8">
-        <v>210</v>
-      </c>
-      <c r="K8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="1" t="s">
+      <c r="J15">
+        <v>12</v>
+      </c>
+      <c r="K15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>194161435</v>
+      </c>
+      <c r="C16">
+        <v>185404885</v>
+      </c>
+      <c r="D16" s="2">
+        <v>45200.5964102932</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="F16" s="2">
+        <v>45204.50833333333</v>
+      </c>
+      <c r="G16">
+        <v>564</v>
+      </c>
+      <c r="H16">
+        <v>15</v>
+      </c>
+      <c r="I16">
+        <v>84</v>
+      </c>
+      <c r="J16">
+        <v>479</v>
+      </c>
+      <c r="K16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>194161435</v>
+      </c>
+      <c r="C17">
+        <v>185404885</v>
+      </c>
+      <c r="D17" s="2">
+        <v>45200.62727545093</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="F17" s="2">
+        <v>45207.50833333333</v>
+      </c>
+      <c r="G17">
+        <v>345345</v>
+      </c>
+      <c r="H17">
+        <v>15</v>
+      </c>
+      <c r="I17">
+        <v>51801</v>
+      </c>
+      <c r="J17">
+        <v>293543</v>
+      </c>
+      <c r="K17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
